--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H2">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I2">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J2">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N2">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O2">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P2">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q2">
-        <v>3664.939643567709</v>
+        <v>2301.407901136167</v>
       </c>
       <c r="R2">
-        <v>32984.45679210938</v>
+        <v>20712.6711102255</v>
       </c>
       <c r="S2">
-        <v>0.5123429000615634</v>
+        <v>0.4957764737960804</v>
       </c>
       <c r="T2">
-        <v>0.5123429000615634</v>
+        <v>0.4957764737960803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H3">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I3">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J3">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P3">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q3">
-        <v>589.2354739739583</v>
+        <v>391.4838105145567</v>
       </c>
       <c r="R3">
-        <v>5303.119265765625</v>
+        <v>3523.35429463101</v>
       </c>
       <c r="S3">
-        <v>0.08237260116542772</v>
+        <v>0.08433466445880435</v>
       </c>
       <c r="T3">
-        <v>0.0823726011654277</v>
+        <v>0.08433466445880433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H4">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I4">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J4">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N4">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O4">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P4">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q4">
-        <v>1300.187383541667</v>
+        <v>598.25254758388</v>
       </c>
       <c r="R4">
-        <v>11701.686451875</v>
+        <v>5384.27292825492</v>
       </c>
       <c r="S4">
-        <v>0.1817606398720184</v>
+        <v>0.1288774312168788</v>
       </c>
       <c r="T4">
-        <v>0.1817606398720184</v>
+        <v>0.1288774312168788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H5">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I5">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J5">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N5">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O5">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P5">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q5">
-        <v>8.374980838541665</v>
+        <v>3.139801157570001</v>
       </c>
       <c r="R5">
-        <v>75.374827546875</v>
+        <v>28.25821041813001</v>
       </c>
       <c r="S5">
-        <v>0.001170786530771196</v>
+        <v>0.0006763857661010111</v>
       </c>
       <c r="T5">
-        <v>0.001170786530771196</v>
+        <v>0.0006763857661010109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.414462</v>
       </c>
       <c r="I6">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J6">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N6">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O6">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P6">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q6">
-        <v>867.1310849860012</v>
+        <v>819.5710441486777</v>
       </c>
       <c r="R6">
-        <v>7804.17976487401</v>
+        <v>7376.1393973381</v>
       </c>
       <c r="S6">
-        <v>0.1212212199988035</v>
+        <v>0.1765545525818382</v>
       </c>
       <c r="T6">
-        <v>0.1212212199988035</v>
+        <v>0.1765545525818381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.414462</v>
       </c>
       <c r="I7">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J7">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P7">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q7">
         <v>139.4141365345625</v>
@@ -883,10 +883,10 @@
         <v>1254.727228811062</v>
       </c>
       <c r="S7">
-        <v>0.01948950050161362</v>
+        <v>0.03003302846675208</v>
       </c>
       <c r="T7">
-        <v>0.01948950050161361</v>
+        <v>0.03003302846675208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.414462</v>
       </c>
       <c r="I8">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J8">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N8">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O8">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P8">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q8">
-        <v>307.6265931293956</v>
+        <v>213.0480497811226</v>
       </c>
       <c r="R8">
-        <v>2768.63933816456</v>
+        <v>1917.432448030104</v>
       </c>
       <c r="S8">
-        <v>0.04300488307811374</v>
+        <v>0.04589547590302086</v>
       </c>
       <c r="T8">
-        <v>0.04300488307811374</v>
+        <v>0.04589547590302086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>34.414462</v>
       </c>
       <c r="I9">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J9">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N9">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O9">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P9">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q9">
-        <v>1.981535012181555</v>
+        <v>1.118137341867333</v>
       </c>
       <c r="R9">
-        <v>17.833815109634</v>
+        <v>10.063236076806</v>
       </c>
       <c r="S9">
-        <v>0.0002770101266187107</v>
+        <v>0.0002408726363966325</v>
       </c>
       <c r="T9">
-        <v>0.0002770101266187107</v>
+        <v>0.0002408726363966324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H10">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I10">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J10">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N10">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O10">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P10">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q10">
-        <v>153.8446623543861</v>
+        <v>91.40442597609443</v>
       </c>
       <c r="R10">
-        <v>1384.601961189475</v>
+        <v>822.6398337848499</v>
       </c>
       <c r="S10">
-        <v>0.02150682634241368</v>
+        <v>0.01969062675826007</v>
       </c>
       <c r="T10">
-        <v>0.02150682634241368</v>
+        <v>0.01969062675826007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H11">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I11">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J11">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>36.459301</v>
       </c>
       <c r="O11">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P11">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q11">
-        <v>24.73457719824945</v>
+        <v>15.54846186169411</v>
       </c>
       <c r="R11">
-        <v>222.611194784245</v>
+        <v>139.936156755247</v>
       </c>
       <c r="S11">
-        <v>0.003457788189169566</v>
+        <v>0.003349498188016977</v>
       </c>
       <c r="T11">
-        <v>0.003457788189169565</v>
+        <v>0.003349498188016976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H12">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I12">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J12">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N12">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O12">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P12">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q12">
-        <v>54.57849472895556</v>
+        <v>23.76064263690266</v>
       </c>
       <c r="R12">
-        <v>491.2064525606001</v>
+        <v>213.845783732124</v>
       </c>
       <c r="S12">
-        <v>0.007629840322065113</v>
+        <v>0.005118591804537052</v>
       </c>
       <c r="T12">
-        <v>0.007629840322065113</v>
+        <v>0.005118591804537051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H13">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I13">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J13">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N13">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O13">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P13">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q13">
-        <v>0.3515599776905556</v>
+        <v>0.1247026754123333</v>
       </c>
       <c r="R13">
-        <v>3.164039799215</v>
+        <v>1.122324078711</v>
       </c>
       <c r="S13">
-        <v>4.914658249056923E-05</v>
+        <v>2.686383959068794E-05</v>
       </c>
       <c r="T13">
-        <v>4.914658249056923E-05</v>
+        <v>2.686383959068793E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H14">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I14">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J14">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N14">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O14">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P14">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q14">
-        <v>26.94273705778666</v>
+        <v>30.56653650896666</v>
       </c>
       <c r="R14">
-        <v>242.4846335200799</v>
+        <v>275.0988285806999</v>
       </c>
       <c r="S14">
-        <v>0.003766479500967954</v>
+        <v>0.006584738706725254</v>
       </c>
       <c r="T14">
-        <v>0.003766479500967953</v>
+        <v>0.006584738706725253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H15">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I15">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J15">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>36.459301</v>
       </c>
       <c r="O15">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P15">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q15">
-        <v>4.331753858010665</v>
+        <v>5.199558140412666</v>
       </c>
       <c r="R15">
-        <v>38.98578472209599</v>
+        <v>46.79602326371399</v>
       </c>
       <c r="S15">
-        <v>0.0006055606776120292</v>
+        <v>0.001120105044776665</v>
       </c>
       <c r="T15">
-        <v>0.000605560677612029</v>
+        <v>0.001120105044776665</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H16">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I16">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J16">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N16">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O16">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P16">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q16">
-        <v>9.558303876053332</v>
+        <v>7.945791933831998</v>
       </c>
       <c r="R16">
-        <v>86.02473488448</v>
+        <v>71.51212740448798</v>
       </c>
       <c r="S16">
-        <v>0.001336210034487673</v>
+        <v>0.001711707300790868</v>
       </c>
       <c r="T16">
-        <v>0.001336210034487672</v>
+        <v>0.001711707300790868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H17">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I17">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J17">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N17">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O17">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P17">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q17">
-        <v>0.06156851914133332</v>
+        <v>0.041701797698</v>
       </c>
       <c r="R17">
-        <v>0.5541166722719999</v>
+        <v>0.375316179282</v>
       </c>
       <c r="S17">
-        <v>8.607015863065965E-06</v>
+        <v>8.983531430245438E-06</v>
       </c>
       <c r="T17">
-        <v>8.607015863065963E-06</v>
+        <v>8.983531430245437E-06</v>
       </c>
     </row>
   </sheetData>
